--- a/E-commerce/Tugas 1.xlsx
+++ b/E-commerce/Tugas 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLB\Documents\R7S\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E009722-6797-423E-9861-B2EFC7A82D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59D5B8-52F9-4D4B-BE1B-BDD65388C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,30 @@
     <sheet name="Lembar1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$3:$N$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>KODE</t>
   </si>
@@ -55,24 +68,6 @@
     <t>HARGA</t>
   </si>
   <si>
-    <t>SPT01</t>
-  </si>
-  <si>
-    <t>SPT02</t>
-  </si>
-  <si>
-    <t>SPT03</t>
-  </si>
-  <si>
-    <t>SPT04</t>
-  </si>
-  <si>
-    <t>SPT05</t>
-  </si>
-  <si>
-    <t>SPT06</t>
-  </si>
-  <si>
     <t>Sepatu</t>
   </si>
   <si>
@@ -82,15 +77,9 @@
     <t>Hitam</t>
   </si>
   <si>
-    <t>Cokelat</t>
-  </si>
-  <si>
     <t>28 × 8 × 5.5 cm</t>
   </si>
   <si>
-    <t>30 × 10 × 6 cm</t>
-  </si>
-  <si>
     <t>Menggunakan tali sepatu</t>
   </si>
   <si>
@@ -104,6 +93,36 @@
   </si>
   <si>
     <t>Atas sepatu berbahan mesh</t>
+  </si>
+  <si>
+    <t>30 × 9 × 6 cm</t>
+  </si>
+  <si>
+    <t>32 × 9.5 × 6.5 cm</t>
+  </si>
+  <si>
+    <t>AG40</t>
+  </si>
+  <si>
+    <t>AG42</t>
+  </si>
+  <si>
+    <t>AG44</t>
+  </si>
+  <si>
+    <t>Sepatu lari ini dirancang untuk pemakaian dalam waktu lama. Bantalan BOOST yang responsif, upper adidas PRIMEKNIT mirip kaus kaki, dan Karet Continental™ yang mencengkeram outsole membuatmu tetap nyaman kemanapun kamu berjalan.</t>
+  </si>
+  <si>
+    <t>Abu-abu</t>
+  </si>
+  <si>
+    <t>AU40</t>
+  </si>
+  <si>
+    <t>AU42</t>
+  </si>
+  <si>
+    <t>AU44</t>
   </si>
 </sst>
 </file>
@@ -111,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,13 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,9 +306,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +313,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,15 +346,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1686694</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1558163</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>923926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,8 +383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="657225"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="704851"/>
+          <a:ext cx="1234313" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -374,25 +393,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>895350</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1705744</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1234313" cy="876299"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Gambar 7">
+        <xdr:cNvPr id="2" name="Gambar 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6678583-5935-8408-9DB5-06EF152329BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9228DAD-4817-4269-869E-1BBD7A30289B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,21 +415,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="1552575"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="1647826"/>
+          <a:ext cx="1234313" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,26 +436,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1705744</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1234313" cy="876299"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Gambar 8">
+        <xdr:cNvPr id="3" name="Gambar 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5226E087-E3D9-CA5B-E469-C113AF467718}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76826BB6-683F-4A80-826D-AD0C573080E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,21 +459,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="2552700"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="2590801"/>
+          <a:ext cx="1234313" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,26 +480,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1667644</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1234313" cy="876299"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Gambar 9">
+        <xdr:cNvPr id="4" name="Gambar 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F32DFA-5285-3FFB-C886-D6D918807E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EC88CF-081C-4DF8-8A2B-24B1C744E405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,21 +503,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="3505200"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="3533776"/>
+          <a:ext cx="1234313" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,26 +524,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>914400</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1667644</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1234313" cy="876299"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Gambar 10">
+        <xdr:cNvPr id="5" name="Gambar 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A728DA0-61CE-C0C7-B639-9D729011EEB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC59954-C4E6-4E48-A940-0219162E270B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -551,21 +547,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="4400550"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="4476751"/>
+          <a:ext cx="1234313" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,26 +568,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>914400</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1639069</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1234313" cy="876299"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Gambar 11">
+        <xdr:cNvPr id="6" name="Gambar 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160C76A6-1D4D-5F59-D227-536FB8E57AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3209631-AF08-4C2B-899B-E398F72E25C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,21 +591,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="5343525"/>
-          <a:ext cx="1381894" cy="981075"/>
+          <a:off x="1543050" y="5419726"/>
+          <a:ext cx="1234313" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,7 +612,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -897,6 +886,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -904,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,13 +923,13 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
@@ -955,178 +945,182 @@
     </row>
     <row r="4" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="10">
-        <v>650000</v>
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
+        <v>550000</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="10">
-        <v>650000</v>
+        <v>18</v>
+      </c>
+      <c r="N5" s="4">
+        <f>N4+50000</f>
+        <v>600000</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="4">
+        <f>N5+50000</f>
         <v>650000</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="10">
-        <v>750000</v>
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1500000</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="2">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="10">
-        <v>750000</v>
+      <c r="N8" s="4">
+        <f>N7+50000</f>
+        <v>1550000</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="10">
-        <v>750000</v>
+        <v>19</v>
+      </c>
+      <c r="N9" s="4">
+        <f>N8+50000</f>
+        <v>1600000</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -1322,7 +1316,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/E-commerce/Tugas 1.xlsx
+++ b/E-commerce/Tugas 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLB\Documents\R7S\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59D5B8-52F9-4D4B-BE1B-BDD65388C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE420D0F-647D-41BE-8440-8FC374F2696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,11 +246,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -261,7 +276,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -274,7 +289,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -283,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,10 +306,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,7 +321,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,13 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +913,7 @@
   <dimension ref="B3:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,75 +928,75 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="3" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:14" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>40</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="10">
         <v>550000</v>
       </c>
     </row>
@@ -995,7 +1013,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1023,7 @@
       <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f>N4+50000</f>
         <v>600000</v>
       </c>
@@ -1023,7 +1041,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1051,7 @@
       <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f>N5+50000</f>
         <v>650000</v>
       </c>
@@ -1053,7 +1071,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1081,7 @@
       <c r="M7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>1500000</v>
       </c>
     </row>
@@ -1080,7 +1098,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1108,7 @@
       <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f>N7+50000</f>
         <v>1550000</v>
       </c>
@@ -1108,7 +1126,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1118,7 +1136,7 @@
       <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f>N8+50000</f>
         <v>1600000</v>
       </c>

--- a/E-commerce/Tugas 1.xlsx
+++ b/E-commerce/Tugas 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLB\Documents\R7S\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE420D0F-647D-41BE-8440-8FC374F2696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4033A-7E33-4265-AF88-928825AB6FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>KODE</t>
   </si>
@@ -68,9 +67,6 @@
     <t>HARGA</t>
   </si>
   <si>
-    <t>Sepatu</t>
-  </si>
-  <si>
     <t>Maksimalkan kualitas sesi larimu. Seberapa pun jauh berlari, sepatu adidas ini akan membuat setiap langkahmu terasa nyaman. Beberapa blok lagi. Beberapa putaran lagi. Atau, beberapa kilometer lagi. Kamu pasti bisa melakukannya.</t>
   </si>
   <si>
@@ -123,6 +119,12 @@
   </si>
   <si>
     <t>AU44</t>
+  </si>
+  <si>
+    <t>Sepatu Adidas Galaxy</t>
+  </si>
+  <si>
+    <t>Sepatu Adidas Ultraboost</t>
   </si>
 </sst>
 </file>
@@ -298,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,14 +314,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,20 +347,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +921,7 @@
   <dimension ref="B3:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,99 +937,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="11" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="4">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="10">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6">
         <v>550000</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="3">
         <f>N4+50000</f>
@@ -1030,26 +1038,26 @@
     </row>
     <row r="6" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>44</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="3">
         <f>N5+50000</f>
@@ -1058,28 +1066,28 @@
     </row>
     <row r="7" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3">
         <v>1500000</v>
@@ -1087,26 +1095,26 @@
     </row>
     <row r="8" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="3">
         <f>N7+50000</f>
@@ -1115,26 +1123,26 @@
     </row>
     <row r="9" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>44</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="3">
         <f>N8+50000</f>

--- a/E-commerce/Tugas 1.xlsx
+++ b/E-commerce/Tugas 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLB\Documents\R7S\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4033A-7E33-4265-AF88-928825AB6FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDA20C-2897-4F90-95D4-891512ADDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$3:$N$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -296,11 +296,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +336,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,7 +363,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -373,13 +392,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1558163</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>923926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -423,7 +442,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1234313" cy="876299"/>
@@ -467,7 +486,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1234313" cy="876299"/>
@@ -511,7 +530,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1234313" cy="876299"/>
@@ -555,7 +574,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1234313" cy="876299"/>
@@ -599,7 +618,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1234313" cy="876299"/>
@@ -637,6 +656,75 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2066926" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Kotak Teks 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88558EE1-EBBD-49E8-8C5F-DE30CAE7EF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571499" y="123824"/>
+          <a:ext cx="2066926" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Nama : Rayhan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Lingga Buana</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>NPM : 201943501484</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -918,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N21"/>
+  <dimension ref="B4:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,197 +1024,169 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="4" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="7" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="2:14" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="6">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="2" t="s">
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="3">
-        <f>N4+50000</f>
-        <v>600000</v>
+      <c r="L5" s="4">
+        <v>40</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6">
+        <v>550000</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="3">
         <f>N5+50000</f>
-        <v>650000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N7" s="3">
-        <v>1500000</v>
+        <f>N6+50000</f>
+        <v>650000</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="14"/>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N8" s="3">
-        <f>N7+50000</f>
-        <v>1550000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9"/>
@@ -1139,30 +1199,43 @@
         <v>23</v>
       </c>
       <c r="L9" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="3">
         <f>N8+50000</f>
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3">
+        <f>N9+50000</f>
         <v>1600000</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -1329,16 +1402,31 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="J5:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
